--- a/Andrew-annotations/UNVR_Q1_2017.xlsx
+++ b/Andrew-annotations/UNVR_Q1_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27045A9F-63F0-47D1-950D-C4A1BD927E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430F946D-F81A-410A-8A23-A76EDD8B37B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -266,6 +266,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="63" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,22 +629,22 @@
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
         <v>2</v>
       </c>
     </row>
@@ -658,22 +661,22 @@
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
         <v>2</v>
       </c>
     </row>
@@ -690,22 +693,22 @@
       <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
         <v>2</v>
       </c>
     </row>
@@ -722,22 +725,22 @@
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
         <v>2</v>
       </c>
     </row>
@@ -754,22 +757,22 @@
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
         <v>2</v>
       </c>
     </row>
@@ -786,22 +789,22 @@
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>2</v>
       </c>
     </row>
@@ -818,22 +821,22 @@
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <v>2</v>
       </c>
     </row>
@@ -850,22 +853,22 @@
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
         <v>2</v>
       </c>
     </row>
@@ -882,22 +885,22 @@
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <v>2</v>
       </c>
     </row>
@@ -914,22 +917,22 @@
       <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
         <v>2</v>
       </c>
     </row>
@@ -946,22 +949,22 @@
       <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4">
         <v>2</v>
       </c>
     </row>
@@ -978,22 +981,22 @@
       <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1010,22 +1013,22 @@
       <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1042,22 +1045,22 @@
       <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1074,22 +1077,22 @@
       <c r="D16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1106,22 +1109,22 @@
       <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1138,22 +1141,22 @@
       <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1170,22 +1173,22 @@
       <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1202,22 +1205,22 @@
       <c r="D20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2</v>
+      </c>
+      <c r="J20" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1234,22 +1237,22 @@
       <c r="D21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1266,22 +1269,22 @@
       <c r="D22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22">
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1298,22 +1301,22 @@
       <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4">
         <v>2</v>
       </c>
     </row>
